--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_714.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_714.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33125-d9767365-Reviews-Stanton_Inn_Suites-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Stanton-Inn-Suites.h13076371.Hotel-Information</t>
@@ -532,11 +538,15 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +568,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_714.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_714.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,192 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r547910402-Stanton_Inn_Suites-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>33125</t>
+  </si>
+  <si>
+    <t>9767365</t>
+  </si>
+  <si>
+    <t>547910402</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Not so Good Experience...</t>
+  </si>
+  <si>
+    <t>Booked for 2 days and Cancelled my reservation for 2nd day. I requested a non smoker room and got a smoker room. Found Cigarettes in the room beside the bed. Also the Hotel is so bad and don't get fooled by it's appearance. Not worth to spend on this. But requested cancellation but got my amount refunded Thanks to Hotels.com.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r505199892-Stanton_Inn_Suites-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>505199892</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>complimentary breakfast was cookies; they never cleaned our room</t>
+  </si>
+  <si>
+    <t>Just don't do it... Pay the extra 10-15$ a night and stay elsewhere. We ended leaving and forfeiting our remaining nights because it was so bad. Our flight arrived at 9am at John Wayne and we called to see if they could accommodate us to come in earlier than 3pm, on a Wednesday...It wasn't even an option, and the hotel was empty when we arrived. We anticipated the "complimentary breakfast" each morning, but realized that they put out cookies....really, that was it! There were excuses for everything.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r493343784-Stanton_Inn_Suites-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>493343784</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Good and comfortable hotel close to Disney</t>
+  </si>
+  <si>
+    <t>We are from Colorado and we stayed there for 4 nights during our visit to Disneyland and Universal studios. As we don't want to change hotel (with small kids with us) for Universal studios so we stayed here only.  It is around 10-15 mins drive from Disney but around 1 hr from Universal studios. Hotel is overall comfortable to stay with all basic amenities.  Even though it says complimentary breakfast but not many options for vegetarians. Also many eating places in 10-15 mins walking distance</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r466547888-Stanton_Inn_Suites-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>466547888</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>excellent staff, great breakfast</t>
+  </si>
+  <si>
+    <t>I was there in April 2016 for one week.  Good accommodations and could not have found a nicer place so close to my kids.  The staff was great and supplied me with the Blue Line to take me to LAX for a great price. Very pleased.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r439676226-Stanton_Inn_Suites-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>439676226</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Don't bother!!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel on a family trip to disneyland for the night. This hotel blows! Driving up to the parking lot I see they are remodeling the exterior of this hotel. Fair enough not big issue. While walking in hotel lobby I saw a drug exchange go down in the parking lot. I minded my own business. The front office guy was professional. Got our keys and walked towards the room.Walked in and bam!!! It was outdated, dusty, dirty and so bare. Like seriously the carpet had left over gun stains. The bathroom had rust stains on counter and the bedroom of the hotel carpet had humps!!! Not worth staying at this place. Find somewhere else to stay at. Im sure I saw a escort talking to random john in a awkward conversation by the lobby of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel on a family trip to disneyland for the night. This hotel blows! Driving up to the parking lot I see they are remodeling the exterior of this hotel. Fair enough not big issue. While walking in hotel lobby I saw a drug exchange go down in the parking lot. I minded my own business. The front office guy was professional. Got our keys and walked towards the room.Walked in and bam!!! It was outdated, dusty, dirty and so bare. Like seriously the carpet had left over gun stains. The bathroom had rust stains on counter and the bedroom of the hotel carpet had humps!!! Not worth staying at this place. Find somewhere else to stay at. Im sure I saw a escort talking to random john in a awkward conversation by the lobby of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r435702426-Stanton_Inn_Suites-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>435702426</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Its a budget accomodation</t>
+  </si>
+  <si>
+    <t>Its a budget accomodation, You get a room with a bed, dont expect much more than that, The bath tub was clean but had permanent stains, the air from the air conditioner smelled when switched on, so we decided not to use it at all, we went in Oct end.Breakfast is bagels and cereals. Internet is the slowest you would expect, but it comes.The carpet around the mini fridge was damp( God knows why) and the whole room smelled of i dont know what.We came only to sleep at around 10:00 PM all three days and were back to enjoying in Disneyland for the dayThe good things to us were: Disneyland is pretty close by ( 6 miles)There are a lot of food options at walkable distance, Chinese\Japanese\thai and Mexican are just 2 min walk.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Its a budget accomodation, You get a room with a bed, dont expect much more than that, The bath tub was clean but had permanent stains, the air from the air conditioner smelled when switched on, so we decided not to use it at all, we went in Oct end.Breakfast is bagels and cereals. Internet is the slowest you would expect, but it comes.The carpet around the mini fridge was damp( God knows why) and the whole room smelled of i dont know what.We came only to sleep at around 10:00 PM all three days and were back to enjoying in Disneyland for the dayThe good things to us were: Disneyland is pretty close by ( 6 miles)There are a lot of food options at walkable distance, Chinese\Japanese\thai and Mexican are just 2 min walk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r388303029-Stanton_Inn_Suites-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>388303029</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Nice little stop over for 2 nights</t>
+  </si>
+  <si>
+    <t>A friend and I stopped over here for 2 nights on late notice and we were grateful for the wonderful service from Angelica in reception. The bed was clean &amp; price was reasonable while travelling on a tight budget. Yes it isn't 5 star but it was a quiet place to stay.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r369629444-Stanton_Inn_Suites-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>369629444</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>If you like cold showers, this is your dream destination!</t>
+  </si>
+  <si>
+    <t>We're starting a list of places never to stay again just because of this place. We stayed 2 nights for a Disney "Dapper Day" vacation because the hotel is about 15-20 minutes away.Here are our top 6 reasons never to stay here again:1. We had NO HOT WATER when we tried to shower in the morning, both mornings!2. The towels were threadbare and had lipstick stains and long black hairs on them3. The free breakfast is only served for one hour between 8-9am, and the cleaning staff was milling around in front of the coffee and juice machine and seemed annoyed that we wanted to get to the machines. They only have bagels, pre-packaged bear claws, cereal, orange colored juice, and coffee.4. There were 3 unsupervised 12 year old boys making a lot of noise in the pool at 11:30pm.5. The ceiling started to leak in the hallway near our room, and a collection of containers were put there to catch the water.6. There is free Wi-Fi, but no instructions were given how to access it. When we figured it out, it was verrrrrrrrrrrry slowwwwwwwwwwwwwww.MoreShow less</t>
+  </si>
+  <si>
+    <t>We're starting a list of places never to stay again just because of this place. We stayed 2 nights for a Disney "Dapper Day" vacation because the hotel is about 15-20 minutes away.Here are our top 6 reasons never to stay here again:1. We had NO HOT WATER when we tried to shower in the morning, both mornings!2. The towels were threadbare and had lipstick stains and long black hairs on them3. The free breakfast is only served for one hour between 8-9am, and the cleaning staff was milling around in front of the coffee and juice machine and seemed annoyed that we wanted to get to the machines. They only have bagels, pre-packaged bear claws, cereal, orange colored juice, and coffee.4. There were 3 unsupervised 12 year old boys making a lot of noise in the pool at 11:30pm.5. The ceiling started to leak in the hallway near our room, and a collection of containers were put there to catch the water.6. There is free Wi-Fi, but no instructions were given how to access it. When we figured it out, it was verrrrrrrrrrrry slowwwwwwwwwwwwwww.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r362335571-Stanton_Inn_Suites-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>362335571</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Nice, spacious and clean hotel</t>
+  </si>
+  <si>
+    <t>Great location within walking distance to a shopping center. Target, Denny's, Togo's, Pizza and tacos are close by.I made a reservation online. After a 7 hours driving I just wanted to enjoy my bed, which I did pretty quickly after the clerk in the front desk helped me out to check in.My room is very nice and clean, enough space for me and my 3 children. There are microwave, mini fridge, coffee machine, hair dryer, iron with table, and two comfy chairs!I took a nap while my kids enjoyed the pool and jacuzzi, even a small fitness center.This morning we had a free breakfast which was good enough compared with other hotels we had been into.Disneyland park is close enough, only 15 min drive.No cons or complaints I could tell you about.Highly recommended and definitely coming back MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location within walking distance to a shopping center. Target, Denny's, Togo's, Pizza and tacos are close by.I made a reservation online. After a 7 hours driving I just wanted to enjoy my bed, which I did pretty quickly after the clerk in the front desk helped me out to check in.My room is very nice and clean, enough space for me and my 3 children. There are microwave, mini fridge, coffee machine, hair dryer, iron with table, and two comfy chairs!I took a nap while my kids enjoyed the pool and jacuzzi, even a small fitness center.This morning we had a free breakfast which was good enough compared with other hotels we had been into.Disneyland park is close enough, only 15 min drive.No cons or complaints I could tell you about.Highly recommended and definitely coming back More</t>
   </si>
 </sst>
 </file>
@@ -643,6 +829,537 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>19861</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>19861</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>19861</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19861</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>19861</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>19861</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>19861</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19861</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>19861</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_714.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_714.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>pradeepm488</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>snoshooarch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r505199892-Stanton_Inn_Suites-Stanton_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>agtrip2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r493343784-Stanton_Inn_Suites-Stanton_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Janet P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r466547888-Stanton_Inn_Suites-Stanton_California.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Kenneth H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r439676226-Stanton_Inn_Suites-Stanton_California.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>Stayed at this hotel on a family trip to disneyland for the night. This hotel blows! Driving up to the parking lot I see they are remodeling the exterior of this hotel. Fair enough not big issue. While walking in hotel lobby I saw a drug exchange go down in the parking lot. I minded my own business. The front office guy was professional. Got our keys and walked towards the room.Walked in and bam!!! It was outdated, dusty, dirty and so bare. Like seriously the carpet had left over gun stains. The bathroom had rust stains on counter and the bedroom of the hotel carpet had humps!!! Not worth staying at this place. Find somewhere else to stay at. Im sure I saw a escort talking to random john in a awkward conversation by the lobby of the hotel.More</t>
   </si>
   <si>
+    <t>rohiitraj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r435702426-Stanton_Inn_Suites-Stanton_California.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>Its a budget accomodation, You get a room with a bed, dont expect much more than that, The bath tub was clean but had permanent stains, the air from the air conditioner smelled when switched on, so we decided not to use it at all, we went in Oct end.Breakfast is bagels and cereals. Internet is the slowest you would expect, but it comes.The carpet around the mini fridge was damp( God knows why) and the whole room smelled of i dont know what.We came only to sleep at around 10:00 PM all three days and were back to enjoying in Disneyland for the dayThe good things to us were: Disneyland is pretty close by ( 6 miles)There are a lot of food options at walkable distance, Chinese\Japanese\thai and Mexican are just 2 min walk.More</t>
   </si>
   <si>
+    <t>Ann C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r388303029-Stanton_Inn_Suites-Stanton_California.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Jeff-n-Patti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r369629444-Stanton_Inn_Suites-Stanton_California.html</t>
   </si>
   <si>
@@ -313,6 +337,9 @@
   </si>
   <si>
     <t>We're starting a list of places never to stay again just because of this place. We stayed 2 nights for a Disney "Dapper Day" vacation because the hotel is about 15-20 minutes away.Here are our top 6 reasons never to stay here again:1. We had NO HOT WATER when we tried to shower in the morning, both mornings!2. The towels were threadbare and had lipstick stains and long black hairs on them3. The free breakfast is only served for one hour between 8-9am, and the cleaning staff was milling around in front of the coffee and juice machine and seemed annoyed that we wanted to get to the machines. They only have bagels, pre-packaged bear claws, cereal, orange colored juice, and coffee.4. There were 3 unsupervised 12 year old boys making a lot of noise in the pool at 11:30pm.5. The ceiling started to leak in the hallway near our room, and a collection of containers were put there to catch the water.6. There is free Wi-Fi, but no instructions were given how to access it. When we figured it out, it was verrrrrrrrrrrry slowwwwwwwwwwwwwww.More</t>
+  </si>
+  <si>
+    <t>Karla M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d9767365-r362335571-Stanton_Inn_Suites-Stanton_California.html</t>
@@ -833,43 +860,47 @@
       <c r="A2" t="n">
         <v>19861</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -889,50 +920,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19861</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -950,50 +985,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>19861</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1013,50 +1052,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19861</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1074,50 +1117,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19861</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1131,50 +1178,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>19861</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1194,50 +1245,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>19861</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1251,41 +1306,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>19861</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1304,41 +1363,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>19861</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -1357,7 +1420,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
